--- a/test-data/verify/7월_용역자명단_간단.xlsx
+++ b/test-data/verify/7월_용역자명단_간단.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Bill\MLM\검증\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.123.146\doowon_home\project\my\nanumpay\test-data\verify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDFB8FF-131D-46CD-970C-32A109EB011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF36BEA-1E58-40C7-8BEB-37D89B662DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1185" windowWidth="20400" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31305" yWindow="2865" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-07 용역자명단" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>순번</t>
   </si>
@@ -137,13 +137,43 @@
   </si>
   <si>
     <t>송파지점</t>
+  </si>
+  <si>
+    <t>설계사  계좌번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02-0933-869931</t>
+    </r>
+  </si>
+  <si>
+    <t>농협</t>
+  </si>
+  <si>
+    <t>설계사 은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +202,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -187,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -210,11 +247,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,9 +281,19 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{7F4C9306-CDB5-4556-98E6-BB218053ADC7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -530,31 +593,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="N1" sqref="N1:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,31 +640,40 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -623,32 +695,41 @@
       <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -670,32 +751,41 @@
       <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -717,28 +807,37 @@
       <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
